--- a/CNPJS_BOM SUCESSO_FORTALEZA.xlsx
+++ b/CNPJS_BOM SUCESSO_FORTALEZA.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,13 +424,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>85 3292-5457</v>
+        <v>85 98739-1150</v>
       </c>
       <c r="B2" t="str">
-        <v>63391916000130</v>
+        <v>15462036000164</v>
       </c>
       <c r="C2" t="str">
-        <v>FRANCELINO GOMES FILHO</v>
+        <v>MIKAEL YTALO RIBEIRO ALBUQUERQUE</v>
       </c>
       <c r="D2" t="str">
         <v>CE</v>
@@ -447,10 +447,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B3" t="str">
-        <v>69708436000136</v>
+        <v>03034459000102</v>
       </c>
       <c r="C3" t="str">
-        <v>H C COMERCIO DE EMBALAGENS PLASTICA LTDA</v>
+        <v>FRANCISCO MARTINS ROCHA</v>
       </c>
       <c r="D3" t="str">
         <v>CE</v>
@@ -464,13 +464,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-5782</v>
       </c>
       <c r="B4" t="str">
-        <v>05301896000162</v>
+        <v>00312869000171</v>
       </c>
       <c r="C4" t="str">
-        <v>ANTONIO BRAGA DE OLIVEIRA</v>
+        <v>MARTINS LOCACAO E CONSTRUCAO LTDA</v>
       </c>
       <c r="D4" t="str">
         <v>CE</v>
@@ -487,10 +487,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B5" t="str">
-        <v>07376430000151</v>
+        <v>07475187000129</v>
       </c>
       <c r="C5" t="str">
-        <v>VANIA MARIA LOPES BRAGA</v>
+        <v>ASSOCIACAO DOS RECICLADORES AMIGOS DA NATUREZA</v>
       </c>
       <c r="D5" t="str">
         <v>CE</v>
@@ -504,13 +504,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>85 3483-4025</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B6" t="str">
-        <v>11066123000141</v>
+        <v>03532196000153</v>
       </c>
       <c r="C6" t="str">
-        <v>FRANCISCO EVANDRO RODRIGUES TORRES</v>
+        <v>CONDOMINIO ANDRESSA</v>
       </c>
       <c r="D6" t="str">
         <v>CE</v>
@@ -524,13 +524,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>85 3484-6585</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B7" t="str">
-        <v>09520398000161</v>
+        <v>03479718000109</v>
       </c>
       <c r="C7" t="str">
-        <v>R &amp; A PANIFICADORA E CONFEITARIA  LTDA</v>
+        <v>MARISTELA TEIXEIRA MARQUES</v>
       </c>
       <c r="D7" t="str">
         <v>CE</v>
@@ -544,13 +544,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>85 3252-5107</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B8" t="str">
-        <v>09498427000136</v>
+        <v>07376430000151</v>
       </c>
       <c r="C8" t="str">
-        <v>BOM SUCESSO COMERCIAL DE COMBUSTIVEIS LTDA</v>
+        <v>VANIA MARIA LOPES BRAGA</v>
       </c>
       <c r="D8" t="str">
         <v>CE</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>85 3294-9299</v>
+        <v>85 3491-0405</v>
       </c>
       <c r="B9" t="str">
-        <v>09009330000112</v>
+        <v>12564370000211</v>
       </c>
       <c r="C9" t="str">
-        <v>FRANCISCA SIMONE FERREIRA DOS SANTOS MERCADINHO</v>
+        <v>VALDER SA</v>
       </c>
       <c r="D9" t="str">
         <v>CE</v>
@@ -584,13 +584,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>85 3491-0405</v>
+        <v>85 99624-1293</v>
       </c>
       <c r="B10" t="str">
-        <v>12564370000211</v>
+        <v>08849510000140</v>
       </c>
       <c r="C10" t="str">
-        <v>VALDER SA</v>
+        <v>IGREJA PENTECOSTAL DEUS E FIEL</v>
       </c>
       <c r="D10" t="str">
         <v>CE</v>
@@ -604,13 +604,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>85 3483-0441</v>
+        <v>85 3483-6666</v>
       </c>
       <c r="B11" t="str">
-        <v>97548970000168</v>
+        <v>09565057000102</v>
       </c>
       <c r="C11" t="str">
-        <v>A D ROCHA JUNIOR</v>
+        <v>LEANA PEREIRA SARAIVA</v>
       </c>
       <c r="D11" t="str">
         <v>CE</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>nao encontrado</v>
+        <v>85 3253-5636</v>
       </c>
       <c r="B12" t="str">
-        <v>07392197000109</v>
+        <v>11469646000139</v>
       </c>
       <c r="C12" t="str">
-        <v>MARIA LEURILANE BARBOSA DE MOURA</v>
+        <v>JOZIANE CAMELO DIAS</v>
       </c>
       <c r="D12" t="str">
         <v>CE</v>
@@ -644,13 +644,13 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>85 3292-0975</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B13" t="str">
-        <v>73327702000158</v>
+        <v>04191083000102</v>
       </c>
       <c r="C13" t="str">
-        <v>EDILA MARIA SANTOS DE SOUSA</v>
+        <v>FACUNDO VEICULOS LTDA</v>
       </c>
       <c r="D13" t="str">
         <v>CE</v>
@@ -664,13 +664,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>nao encontrado</v>
+        <v>85 3483-7333</v>
       </c>
       <c r="B14" t="str">
-        <v>07357962000141</v>
+        <v>07025104000361</v>
       </c>
       <c r="C14" t="str">
-        <v>LIDIA DOS SANTOS MACHADO</v>
+        <v>POSTO DE COMBUSTIVEIS XIMENES LTDA</v>
       </c>
       <c r="D14" t="str">
         <v>CE</v>
@@ -684,13 +684,13 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-5782</v>
       </c>
       <c r="B15" t="str">
-        <v>35039056000134</v>
+        <v>13486544000157</v>
       </c>
       <c r="C15" t="str">
-        <v>LOURENCO RIBEIRO MACIEL</v>
+        <v>COMERCIAL DE GAS NOBRE LTDA</v>
       </c>
       <c r="D15" t="str">
         <v>CE</v>
@@ -704,13 +704,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-6585</v>
       </c>
       <c r="B16" t="str">
-        <v>02789986000156</v>
+        <v>09520398000161</v>
       </c>
       <c r="C16" t="str">
-        <v>FRANCISCO VANDERLEY DA SILVA</v>
+        <v>R &amp; A PANIFICADORA E CONFEITARIA  LTDA</v>
       </c>
       <c r="D16" t="str">
         <v>CE</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>85 3292-0975</v>
+        <v>85 98834-3438</v>
       </c>
       <c r="B17" t="str">
-        <v>03866796000158</v>
+        <v>12557994000120</v>
       </c>
       <c r="C17" t="str">
-        <v>M D S R COLEGIO CRIATIVO LTDA</v>
+        <v>A MARIA DE AGUIAR</v>
       </c>
       <c r="D17" t="str">
         <v>CE</v>
@@ -744,13 +744,13 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>nao encontrado</v>
+        <v>85 3290-3023</v>
       </c>
       <c r="B18" t="str">
-        <v>04782409000168</v>
+        <v>10986492000190</v>
       </c>
       <c r="C18" t="str">
-        <v>IGREJA EVANGELICA ASSEMBLEIA DE DEUS MISSIONARIA CEIFEIROS DA ULTIMA HORA</v>
+        <v>A M DINIZ DE SOUZA</v>
       </c>
       <c r="D18" t="str">
         <v>CE</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>nao encontrado</v>
+        <v>85 3252-5107</v>
       </c>
       <c r="B19" t="str">
-        <v>01372409000100</v>
+        <v>09498427000136</v>
       </c>
       <c r="C19" t="str">
-        <v>MANOEL AURIZON PORTELA PARENTE</v>
+        <v>BOM SUCESSO COMERCIAL DE COMBUSTIVEIS LTDA</v>
       </c>
       <c r="D19" t="str">
         <v>CE</v>
@@ -787,10 +787,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B20" t="str">
-        <v>06995443000308</v>
+        <v>69708436000136</v>
       </c>
       <c r="C20" t="str">
-        <v>PRODUTOS ALIMENTICIOS ARAGARI LTDA</v>
+        <v>H C COMERCIO DE EMBALAGENS PLASTICA LTDA</v>
       </c>
       <c r="D20" t="str">
         <v>CE</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>85 98834-3438</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B21" t="str">
-        <v>12557994000120</v>
+        <v>06004728000178</v>
       </c>
       <c r="C21" t="str">
-        <v>A MARIA DE AGUIAR</v>
+        <v>MAJESTADE COMERCIO VAREJISTA DE COSMETICOS LTDA</v>
       </c>
       <c r="D21" t="str">
         <v>CE</v>
@@ -824,13 +824,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>85 3483-0142</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B22" t="str">
-        <v>11366654000150</v>
+        <v>04189269000119</v>
       </c>
       <c r="C22" t="str">
-        <v>TALOS JEANS CONFECCOES LTDA</v>
+        <v>FRANCISCO JACSON DE CASTRO LEMOS</v>
       </c>
       <c r="D22" t="str">
         <v>CE</v>
@@ -847,10 +847,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B23" t="str">
-        <v>04583366000191</v>
+        <v>06040216000167</v>
       </c>
       <c r="C23" t="str">
-        <v>CHURRASCARIA E PIZZARIA MOURA LTDA</v>
+        <v>CASA PEREIRA LTDA</v>
       </c>
       <c r="D23" t="str">
         <v>CE</v>
@@ -867,10 +867,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B24" t="str">
-        <v>07325241000150</v>
+        <v>05301896000162</v>
       </c>
       <c r="C24" t="str">
-        <v>W. E. DE LACERDA</v>
+        <v>ANTONIO BRAGA DE OLIVEIRA</v>
       </c>
       <c r="D24" t="str">
         <v>CE</v>
@@ -884,13 +884,13 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>85 3281-3898</v>
+        <v>85 3483-0142</v>
       </c>
       <c r="B25" t="str">
-        <v>05052994000103</v>
+        <v>11366654000150</v>
       </c>
       <c r="C25" t="str">
-        <v>SANTOS &amp; MACHADO ARTIGOS EM ACRILICO LTDA</v>
+        <v>TALOS JEANS CONFECCOES LTDA</v>
       </c>
       <c r="D25" t="str">
         <v>CE</v>
@@ -907,10 +907,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B26" t="str">
-        <v>05383661000167</v>
+        <v>01439693000186</v>
       </c>
       <c r="C26" t="str">
-        <v>LUCIANO ANDRADE FALCAO</v>
+        <v>FRANCISCA KATIA ANDRADE TEODORO</v>
       </c>
       <c r="D26" t="str">
         <v>CE</v>
@@ -927,10 +927,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B27" t="str">
-        <v>04189269000119</v>
+        <v>07392197000109</v>
       </c>
       <c r="C27" t="str">
-        <v>FRANCISCO JACSON DE CASTRO LEMOS</v>
+        <v>MARIA LEURILANE BARBOSA DE MOURA</v>
       </c>
       <c r="D27" t="str">
         <v>CE</v>
@@ -944,13 +944,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>85 3232-2227</v>
+        <v>85 3483-0441</v>
       </c>
       <c r="B28" t="str">
-        <v>41638941000132</v>
+        <v>97548970000168</v>
       </c>
       <c r="C28" t="str">
-        <v>ANTONIO JOSE DE ASEVEDO</v>
+        <v>A D ROCHA JUNIOR</v>
       </c>
       <c r="D28" t="str">
         <v>CE</v>
@@ -967,10 +967,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B29" t="str">
-        <v>06004728000178</v>
+        <v>00192019000349</v>
       </c>
       <c r="C29" t="str">
-        <v>MAJESTADE COMERCIO VAREJISTA DE COSMETICOS LTDA</v>
+        <v>ALIMEC - INDUSTRIA E COMERCIO DE MAQUINAS E INSUMOS LTDA</v>
       </c>
       <c r="D29" t="str">
         <v>CE</v>
@@ -987,10 +987,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B30" t="str">
-        <v>01439693000186</v>
+        <v>02355963000133</v>
       </c>
       <c r="C30" t="str">
-        <v>FRANCISCA KATIA ANDRADE TEODORO</v>
+        <v>LUIS CARLITO DE SOUSA</v>
       </c>
       <c r="D30" t="str">
         <v>CE</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>nao encontrado</v>
+        <v>85 3290-8978</v>
       </c>
       <c r="B31" t="str">
-        <v>63469407000182</v>
+        <v>03349343000154</v>
       </c>
       <c r="C31" t="str">
-        <v>FRANCISCO ELANILBER DE SOUSA ROCHA</v>
+        <v>ACADEMIA VIP PHYSICAL LTDA</v>
       </c>
       <c r="D31" t="str">
         <v>CE</v>
@@ -1024,13 +1024,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>85 99652-4206</v>
+        <v>85 3483-4025</v>
       </c>
       <c r="B32" t="str">
-        <v>00850996000124</v>
+        <v>11066123000141</v>
       </c>
       <c r="C32" t="str">
-        <v>CENTRO ESPIRITA LEON DENIS</v>
+        <v>FRANCISCO EVANDRO RODRIGUES TORRES</v>
       </c>
       <c r="D32" t="str">
         <v>CE</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>85 3484-4741</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B33" t="str">
-        <v>41562943000195</v>
+        <v>04122506000124</v>
       </c>
       <c r="C33" t="str">
-        <v>COMERCIAL F. MENEZES LTDA</v>
+        <v>FRANCISCO WENDELL DE LIMA MEDEIROS</v>
       </c>
       <c r="D33" t="str">
         <v>CE</v>
@@ -1067,10 +1067,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B34" t="str">
-        <v>06188570000133</v>
+        <v>04583366000191</v>
       </c>
       <c r="C34" t="str">
-        <v>MARCOS ANTONIO XIMENES RODRIGUES</v>
+        <v>CHURRASCARIA E PIZZARIA MOURA LTDA</v>
       </c>
       <c r="D34" t="str">
         <v>CE</v>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>85 3229-1121</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B35" t="str">
-        <v>35075597000207</v>
+        <v>07045041000143</v>
       </c>
       <c r="C35" t="str">
-        <v>CAUIPE REVENDEDORA DE PETROLEO LTDA</v>
+        <v>CONSELHO ESCOLAR DA EMEIF MARIA DO SOCORRO ALVES CARNEIRO</v>
       </c>
       <c r="D35" t="str">
         <v>CE</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>85 3484-3024</v>
+        <v>85 3491-0405</v>
       </c>
       <c r="B36" t="str">
-        <v>02135510000100</v>
+        <v>12564370000130</v>
       </c>
       <c r="C36" t="str">
-        <v>RAPTYFIRE CICLOPECAS LTDA</v>
+        <v>VALDER SA</v>
       </c>
       <c r="D36" t="str">
         <v>CE</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>nao encontrado</v>
+        <v>85 3294-9299</v>
       </c>
       <c r="B37" t="str">
-        <v>06947828000138</v>
+        <v>09009330000112</v>
       </c>
       <c r="C37" t="str">
-        <v>PRIMEIRA IGREJA BATISTA DO SETIMO DIA DE FORTALEZA</v>
+        <v>FRANCISCA SIMONE FERREIRA DOS SANTOS MERCADINHO</v>
       </c>
       <c r="D37" t="str">
         <v>CE</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>LOGISTICAMOURAO@HOTMAIL.COM</v>
+        <v>85 3290-7852</v>
       </c>
       <c r="B38" t="str">
-        <v>41415423000150</v>
+        <v>12122466000149</v>
       </c>
       <c r="C38" t="str">
-        <v>LOPES MOURAO REPRESENTACOES E TRANSPORTES LTDA</v>
+        <v>A. C. C. JUCA MELO CONFECCOES</v>
       </c>
       <c r="D38" t="str">
         <v>CE</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>85 3484-5782</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B39" t="str">
-        <v>00312869000171</v>
+        <v>69353720000137</v>
       </c>
       <c r="C39" t="str">
-        <v>MARTINS LOCACAO E CONSTRUCAO LTDA</v>
+        <v>RAIMUNDO NONATO CORREIA DE SOUSA</v>
       </c>
       <c r="D39" t="str">
         <v>CE</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-5782</v>
       </c>
       <c r="B40" t="str">
-        <v>06040216000167</v>
+        <v>15799268000102</v>
       </c>
       <c r="C40" t="str">
-        <v>CASA PEREIRA LTDA</v>
+        <v>SANTIAGO &amp; BORGES - SERVICOS CONTABEIS S/S LTDA</v>
       </c>
       <c r="D40" t="str">
         <v>CE</v>
@@ -1207,10 +1207,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B41" t="str">
-        <v>03034459000102</v>
+        <v>02041635000162</v>
       </c>
       <c r="C41" t="str">
-        <v>FRANCISCO MARTINS ROCHA</v>
+        <v>F.A.GOMES CONFECCOES</v>
       </c>
       <c r="D41" t="str">
         <v>CE</v>
@@ -1219,18 +1219,18 @@
         <v>FORTALEZA</v>
       </c>
       <c r="F41" t="str">
-        <v>BOM SUCESSO</v>
+        <v>BOM  SUCESSO</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>nao encontrado</v>
+        <v>85 3229-1121</v>
       </c>
       <c r="B42" t="str">
-        <v>02355963000133</v>
+        <v>35075597000207</v>
       </c>
       <c r="C42" t="str">
-        <v>LUIS CARLITO DE SOUSA</v>
+        <v>CAUIPE REVENDEDORA DE PETROLEO LTDA</v>
       </c>
       <c r="D42" t="str">
         <v>CE</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>85 98739-1150</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B43" t="str">
-        <v>15462036000164</v>
+        <v>01029039000102</v>
       </c>
       <c r="C43" t="str">
-        <v>MIKAEL YTALO RIBEIRO ALBUQUERQUE</v>
+        <v>RAFAEL E GENTIL LTDA</v>
       </c>
       <c r="D43" t="str">
         <v>CE</v>
@@ -1264,13 +1264,13 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>85 3253-5636</v>
+        <v>85 3484-5782</v>
       </c>
       <c r="B44" t="str">
-        <v>11469646000139</v>
+        <v>10932409000108</v>
       </c>
       <c r="C44" t="str">
-        <v>JOZIANE CAMELO DIAS</v>
+        <v>ANTONIO SANTIAGO DE OLIVEIRA</v>
       </c>
       <c r="D44" t="str">
         <v>CE</v>
@@ -1287,10 +1287,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B45" t="str">
-        <v>02041635000162</v>
+        <v>01874053000102</v>
       </c>
       <c r="C45" t="str">
-        <v>F.A.GOMES CONFECCOES</v>
+        <v>CONSELHO ESCOLAR DA ESCOLA MUNICIPAL ANTONIO DIOGO DE SIQUEIRA - EI/EF</v>
       </c>
       <c r="D45" t="str">
         <v>CE</v>
@@ -1299,18 +1299,18 @@
         <v>FORTALEZA</v>
       </c>
       <c r="F45" t="str">
-        <v>BOM  SUCESSO</v>
+        <v>BOM SUCESSO</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-3563</v>
       </c>
       <c r="B46" t="str">
-        <v>23598196000325</v>
+        <v>08795807000170</v>
       </c>
       <c r="C46" t="str">
-        <v>DISK SHOPPING LTDA</v>
+        <v>MAYMA CONFECCOES LTDA</v>
       </c>
       <c r="D46" t="str">
         <v>CE</v>
@@ -1327,10 +1327,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B47" t="str">
-        <v>00192019000349</v>
+        <v>02754876000159</v>
       </c>
       <c r="C47" t="str">
-        <v>ALIMEC - INDUSTRIA E COMERCIO DE MAQUINAS E INSUMOS LTDA</v>
+        <v>MARIA DO SOCORRO DOS REIS SOUSA</v>
       </c>
       <c r="D47" t="str">
         <v>CE</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>nao encontrado</v>
+        <v>85 99652-4206</v>
       </c>
       <c r="B48" t="str">
-        <v>07475187000129</v>
+        <v>00850996000124</v>
       </c>
       <c r="C48" t="str">
-        <v>ASSOCIACAO DOS RECICLADORES AMIGOS DA NATUREZA</v>
+        <v>CENTRO ESPIRITA LEON DENIS</v>
       </c>
       <c r="D48" t="str">
         <v>CE</v>
@@ -1367,10 +1367,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B49" t="str">
-        <v>01874053000102</v>
+        <v>03878792000190</v>
       </c>
       <c r="C49" t="str">
-        <v>CONSELHO ESCOLAR DA ESCOLA MUNICIPAL ANTONIO DIOGO DE SIQUEIRA - EI/EF</v>
+        <v>CONSELHO ESCOLAR DA EMEIF FRANCISCA FERNANDES MAGALHAES</v>
       </c>
       <c r="D49" t="str">
         <v>CE</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>nao encontrado</v>
+        <v>85 98634-4655</v>
       </c>
       <c r="B50" t="str">
-        <v>97484240000140</v>
+        <v>18290121000180</v>
       </c>
       <c r="C50" t="str">
-        <v>MARIA APARECIDA NOBRE SOUSA</v>
+        <v>IGREJA ASSEMBLEIA DE DEUS MINISTERIO RENOVACAO EM CRISTO</v>
       </c>
       <c r="D50" t="str">
         <v>CE</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>nao encontrado</v>
+        <v>85 3483-3849</v>
       </c>
       <c r="B51" t="str">
-        <v>35036300000296</v>
+        <v>97553108000143</v>
       </c>
       <c r="C51" t="str">
-        <v>BANDEIRA &amp; ARAUJO LTDA</v>
+        <v>REGINALDO ALEXANDRINO SAMPAIO</v>
       </c>
       <c r="D51" t="str">
         <v>CE</v>
@@ -1427,10 +1427,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B52" t="str">
-        <v>03479718000109</v>
+        <v>06995443000308</v>
       </c>
       <c r="C52" t="str">
-        <v>MARISTELA TEIXEIRA MARQUES</v>
+        <v>PRODUTOS ALIMENTICIOS ARAGARI LTDA</v>
       </c>
       <c r="D52" t="str">
         <v>CE</v>
@@ -1444,13 +1444,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>85 3491-0405</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B53" t="str">
-        <v>12564370000130</v>
+        <v>63469407000182</v>
       </c>
       <c r="C53" t="str">
-        <v>VALDER SA</v>
+        <v>FRANCISCO ELANILBER DE SOUSA ROCHA</v>
       </c>
       <c r="D53" t="str">
         <v>CE</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>85 3088-3228</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B54" t="str">
-        <v>05270899000186</v>
+        <v>23733462000113</v>
       </c>
       <c r="C54" t="str">
-        <v>MARIA EURENILDA S ARAUJO CONFECCOES</v>
+        <v>TOMYSOM COMERCIAL E ACESSORIOS PARA VEICULOS LTDA</v>
       </c>
       <c r="D54" t="str">
         <v>CE</v>
@@ -1487,10 +1487,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B55" t="str">
-        <v>06193067000176</v>
+        <v>07210925007208</v>
       </c>
       <c r="C55" t="str">
-        <v>FRANCISCO JOSE BARBOZA MERCEARIA</v>
+        <v>MITRA ARQUIDIOCESANA DE FORTALEZA</v>
       </c>
       <c r="D55" t="str">
         <v>CE</v>
@@ -1507,10 +1507,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B56" t="str">
-        <v>03532196000153</v>
+        <v>11087913000294</v>
       </c>
       <c r="C56" t="str">
-        <v>CONDOMINIO ANDRESSA</v>
+        <v>COLEGIO CASTRO LTDA</v>
       </c>
       <c r="D56" t="str">
         <v>CE</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>85 3483-7333</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B57" t="str">
-        <v>07025104000361</v>
+        <v>05526178000194</v>
       </c>
       <c r="C57" t="str">
-        <v>POSTO DE COMBUSTIVEIS XIMENES LTDA</v>
+        <v>IGREJA BATISTA REGULAR EM JOAO XXIII</v>
       </c>
       <c r="D57" t="str">
         <v>CE</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>85 3484-5782</v>
+        <v>85 3292-2505</v>
       </c>
       <c r="B58" t="str">
-        <v>13486544000157</v>
+        <v>04359285000102</v>
       </c>
       <c r="C58" t="str">
-        <v>COMERCIAL DE GAS NOBRE LTDA</v>
+        <v>BRITO SOARES COMERCIO DE ALIMENTOS LTDA</v>
       </c>
       <c r="D58" t="str">
         <v>CE</v>
@@ -1567,10 +1567,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B59" t="str">
-        <v>04122506000124</v>
+        <v>35059336000104</v>
       </c>
       <c r="C59" t="str">
-        <v>FRANCISCO WENDELL DE LIMA MEDEIROS</v>
+        <v>FRANCISCA BEZERRA SEVERO</v>
       </c>
       <c r="D59" t="str">
         <v>CE</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>nao encontrado</v>
+        <v>85 99294-6227</v>
       </c>
       <c r="B60" t="str">
-        <v>02754876000159</v>
+        <v>41321431000137</v>
       </c>
       <c r="C60" t="str">
-        <v>MARIA DO SOCORRO DOS REIS SOUSA</v>
+        <v>41.321.431 JOSE GOTANIO SOUSA ARAUJO</v>
       </c>
       <c r="D60" t="str">
         <v>CE</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-5782</v>
       </c>
       <c r="B61" t="str">
-        <v>01029039000102</v>
+        <v>04166305000129</v>
       </c>
       <c r="C61" t="str">
-        <v>RAFAEL E GENTIL LTDA</v>
+        <v>04.166.305 VANDERLENE ALVES DE OLIVEIRA CORREA</v>
       </c>
       <c r="D61" t="str">
         <v>CE</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-4310</v>
       </c>
       <c r="B62" t="str">
-        <v>35221589000132</v>
+        <v>05437235000169</v>
       </c>
       <c r="C62" t="str">
-        <v>ALCIDES WANDERLEY DINIZ</v>
+        <v>MADEIREIRA GEOVANE LTDA</v>
       </c>
       <c r="D62" t="str">
         <v>CE</v>
@@ -1644,13 +1644,13 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>nao encontrado</v>
+        <v>85 3483-7333</v>
       </c>
       <c r="B63" t="str">
-        <v>07045041000143</v>
+        <v>10459135000173</v>
       </c>
       <c r="C63" t="str">
-        <v>CONSELHO ESCOLAR DA EMEIF MARIA DO SOCORRO ALVES CARNEIRO</v>
+        <v>ANTONIO CLEMILSON DOS SANTOS MOREIRA</v>
       </c>
       <c r="D63" t="str">
         <v>CE</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>nao encontrado</v>
+        <v>85 3483-0549</v>
       </c>
       <c r="B64" t="str">
-        <v>69353720000137</v>
+        <v>05495749000170</v>
       </c>
       <c r="C64" t="str">
-        <v>RAIMUNDO NONATO CORREIA DE SOUSA</v>
+        <v>M A BORDADOS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</v>
       </c>
       <c r="D64" t="str">
         <v>CE</v>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>nao encontrado</v>
+        <v>85 98785-3824</v>
       </c>
       <c r="B65" t="str">
-        <v>00808742000148</v>
+        <v>11660865000109</v>
       </c>
       <c r="C65" t="str">
-        <v>GERALDA FREITAS DE SOUZA 06881742304</v>
+        <v>IGREJA EVANGELICA ASSEMBLEIA DE DEUS VINDE</v>
       </c>
       <c r="D65" t="str">
         <v>CE</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>85 98818-2173</v>
+        <v>85 3292-5457</v>
       </c>
       <c r="B66" t="str">
-        <v>17938517000129</v>
+        <v>63391916000130</v>
       </c>
       <c r="C66" t="str">
-        <v>JOSE ERIVALDO MOTA</v>
+        <v>FRANCELINO GOMES FILHO</v>
       </c>
       <c r="D66" t="str">
         <v>CE</v>
@@ -1727,10 +1727,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B67" t="str">
-        <v>04191083000102</v>
+        <v>23574015000169</v>
       </c>
       <c r="C67" t="str">
-        <v>FACUNDO VEICULOS LTDA</v>
+        <v>JOSE EDNALDO AGUIAR FRANCA</v>
       </c>
       <c r="D67" t="str">
         <v>CE</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>85 3484-5782</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B68" t="str">
-        <v>14982211000181</v>
+        <v>01372409000100</v>
       </c>
       <c r="C68" t="str">
-        <v>CARLIANE CAVALCANTE LIMA</v>
+        <v>MANOEL AURIZON PORTELA PARENTE</v>
       </c>
       <c r="D68" t="str">
         <v>CE</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>85 3472-2410</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B69" t="str">
-        <v>05005161000191</v>
+        <v>02782524000107</v>
       </c>
       <c r="C69" t="str">
-        <v>RAMAQ EMPILHADEIRAS LTDA</v>
+        <v>POSTO MIL COMERCIO DE DERIVADOS DE PETROLEO LTDA</v>
       </c>
       <c r="D69" t="str">
         <v>CE</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>85 3287-1443</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B70" t="str">
-        <v>17283720000104</v>
+        <v>07325241000150</v>
       </c>
       <c r="C70" t="str">
-        <v>FRANCELINO DE SOUSA GOMES</v>
+        <v>W. E. DE LACERDA</v>
       </c>
       <c r="D70" t="str">
         <v>CE</v>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>85 3482-6304</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B71" t="str">
-        <v>12935630000137</v>
+        <v>06188570000133</v>
       </c>
       <c r="C71" t="str">
-        <v>JOAO PEREIRA DE SOUZA JUNIOR</v>
+        <v>MARCOS ANTONIO XIMENES RODRIGUES</v>
       </c>
       <c r="D71" t="str">
         <v>CE</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>85 3484-7250</v>
+        <v>85 3287-1443</v>
       </c>
       <c r="B72" t="str">
-        <v>11462214000104</v>
+        <v>17283720000104</v>
       </c>
       <c r="C72" t="str">
-        <v>ROCHA EMPREENDIMENTOS LTDA</v>
+        <v>FRANCELINO DE SOUSA GOMES</v>
       </c>
       <c r="D72" t="str">
         <v>CE</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>85 3484-5782</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B73" t="str">
-        <v>10932409000108</v>
+        <v>97484240000140</v>
       </c>
       <c r="C73" t="str">
-        <v>ANTONIO SANTIAGO DE OLIVEIRA</v>
+        <v>MARIA APARECIDA NOBRE SOUSA</v>
       </c>
       <c r="D73" t="str">
         <v>CE</v>
@@ -1867,10 +1867,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B74" t="str">
-        <v>04081581000194</v>
+        <v>02789986000156</v>
       </c>
       <c r="C74" t="str">
-        <v>MAPE ENGENHARIA LTDA</v>
+        <v>FRANCISCO VANDERLEY DA SILVA</v>
       </c>
       <c r="D74" t="str">
         <v>CE</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>nao encontrado</v>
+        <v>85 3292-0975</v>
       </c>
       <c r="B75" t="str">
-        <v>02782524000107</v>
+        <v>03866796000158</v>
       </c>
       <c r="C75" t="str">
-        <v>POSTO MIL COMERCIO DE DERIVADOS DE PETROLEO LTDA</v>
+        <v>M D S R COLEGIO CRIATIVO LTDA</v>
       </c>
       <c r="D75" t="str">
         <v>CE</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>85 3252-4379</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B76" t="str">
-        <v>05149035000100</v>
+        <v>35221589000132</v>
       </c>
       <c r="C76" t="str">
-        <v>JOSE ORIECIO DE SOUSA MARQUES</v>
+        <v>ALCIDES WANDERLEY DINIZ</v>
       </c>
       <c r="D76" t="str">
         <v>CE</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>85 98558-5218</v>
+        <v>85 3484-5344</v>
       </c>
       <c r="B77" t="str">
-        <v>11419968000173</v>
+        <v>63368252000198</v>
       </c>
       <c r="C77" t="str">
-        <v>WALESKA MARIA PEDROSA FEITOSA</v>
+        <v>COLEGIO JIM WILLSON S/C LTDA</v>
       </c>
       <c r="D77" t="str">
         <v>CE</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-3024</v>
       </c>
       <c r="B78" t="str">
-        <v>41566217000140</v>
+        <v>02135510000100</v>
       </c>
       <c r="C78" t="str">
-        <v>FRANCISCO HELDER MONTEIRO DE PAULA</v>
+        <v>RAPTYFIRE CICLOPECAS LTDA</v>
       </c>
       <c r="D78" t="str">
         <v>CE</v>
@@ -1967,10 +1967,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B79" t="str">
-        <v>41565607000104</v>
+        <v>06193067000176</v>
       </c>
       <c r="C79" t="str">
-        <v>MARIA MARLUCE AMARO CRUZ</v>
+        <v>FRANCISCO JOSE BARBOZA MERCEARIA</v>
       </c>
       <c r="D79" t="str">
         <v>CE</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>85 3290-7852</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B80" t="str">
-        <v>12122466000149</v>
+        <v>35218049000108</v>
       </c>
       <c r="C80" t="str">
-        <v>A. C. C. JUCA MELO CONFECCOES</v>
+        <v>RESTAURANTE PADRINO LTDA</v>
       </c>
       <c r="D80" t="str">
         <v>CE</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>85 3484-5782</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B81" t="str">
-        <v>15799268000102</v>
+        <v>35039056000134</v>
       </c>
       <c r="C81" t="str">
-        <v>SANTIAGO &amp; BORGES - SERVICOS CONTABEIS S/S LTDA</v>
+        <v>LOURENCO RIBEIRO MACIEL</v>
       </c>
       <c r="D81" t="str">
         <v>CE</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>85 3484-3563</v>
+        <v>85 3482-6304</v>
       </c>
       <c r="B82" t="str">
-        <v>08795807000170</v>
+        <v>12935630000137</v>
       </c>
       <c r="C82" t="str">
-        <v>MAYMA CONFECCOES LTDA</v>
+        <v>JOAO PEREIRA DE SOUZA JUNIOR</v>
       </c>
       <c r="D82" t="str">
         <v>CE</v>
@@ -2047,10 +2047,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B83" t="str">
-        <v>03878792000190</v>
+        <v>97341457000100</v>
       </c>
       <c r="C83" t="str">
-        <v>CONSELHO ESCOLAR DA EMEIF FRANCISCA FERNANDES MAGALHAES</v>
+        <v>COMERCIAL DE BICICLETAS TORRES LTDA</v>
       </c>
       <c r="D83" t="str">
         <v>CE</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>85 3253-3781</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B84" t="str">
-        <v>14259507000179</v>
+        <v>35036300000296</v>
       </c>
       <c r="C84" t="str">
-        <v>DEPOSITO SAO FRANCISCO COMERCIO DE MATERIAL DE CONSTRUCAO LTDA</v>
+        <v>BANDEIRA &amp; ARAUJO LTDA</v>
       </c>
       <c r="D84" t="str">
         <v>CE</v>
@@ -2087,10 +2087,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B85" t="str">
-        <v>03272212000116</v>
+        <v>07357962000141</v>
       </c>
       <c r="C85" t="str">
-        <v>FRANCISCO HELIO DA SILVA PADARIA</v>
+        <v>LIDIA DOS SANTOS MACHADO</v>
       </c>
       <c r="D85" t="str">
         <v>CE</v>
@@ -2104,13 +2104,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>nao encontrado</v>
+        <v>85 3484-5782</v>
       </c>
       <c r="B86" t="str">
-        <v>07210925007208</v>
+        <v>14982211000181</v>
       </c>
       <c r="C86" t="str">
-        <v>MITRA ARQUIDIOCESANA DE FORTALEZA</v>
+        <v>CARLIANE CAVALCANTE LIMA</v>
       </c>
       <c r="D86" t="str">
         <v>CE</v>
@@ -2127,10 +2127,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B87" t="str">
-        <v>00723906000134</v>
+        <v>06947828000138</v>
       </c>
       <c r="C87" t="str">
-        <v>MARIA BERNADETE FERREIRA DE ABREU</v>
+        <v>PRIMEIRA IGREJA BATISTA DO SETIMO DIA DE FORTALEZA</v>
       </c>
       <c r="D87" t="str">
         <v>CE</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>85 3483-0549</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B88" t="str">
-        <v>05495749000170</v>
+        <v>00808742000148</v>
       </c>
       <c r="C88" t="str">
-        <v>M A BORDADOS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</v>
+        <v>GERALDA FREITAS DE SOUZA 06881742304</v>
       </c>
       <c r="D88" t="str">
         <v>CE</v>
@@ -2167,10 +2167,10 @@
         <v>nao encontrado</v>
       </c>
       <c r="B89" t="str">
-        <v>11719952000186</v>
+        <v>05383661000167</v>
       </c>
       <c r="C89" t="str">
-        <v>MAX GESSO COMERCIO LTDA</v>
+        <v>LUCIANO ANDRADE FALCAO</v>
       </c>
       <c r="D89" t="str">
         <v>CE</v>
@@ -2184,13 +2184,13 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>85 3254-7617</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B90" t="str">
-        <v>17670983000176</v>
+        <v>63477467000147</v>
       </c>
       <c r="C90" t="str">
-        <v>PCA CONFECCOES LTDA</v>
+        <v>ANTONIO CAJAZEIRAS NETO</v>
       </c>
       <c r="D90" t="str">
         <v>CE</v>
@@ -2204,13 +2204,13 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>85 3483-3849</v>
+        <v>nao encontrado</v>
       </c>
       <c r="B91" t="str">
-        <v>97553108000143</v>
+        <v>11732005000125</v>
       </c>
       <c r="C91" t="str">
-        <v>REGINALDO ALEXANDRINO SAMPAIO</v>
+        <v>EDILSON MOTA QUINTELA</v>
       </c>
       <c r="D91" t="str">
         <v>CE</v>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>85 3484-7250</v>
+        <v>85 98574-0512</v>
       </c>
       <c r="B92" t="str">
-        <v>18491165000179</v>
+        <v>11098507000146</v>
       </c>
       <c r="C92" t="str">
-        <v>ENY NEVES MEDEIROS</v>
+        <v>R G A SILVA NOVA MANIA</v>
       </c>
       <c r="D92" t="str">
         <v>CE</v>
@@ -2244,13 +2244,13 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>nao encontrado</v>
+        <v>85 3253-3781</v>
       </c>
       <c r="B93" t="str">
-        <v>05526178000194</v>
+        <v>14259507000179</v>
       </c>
       <c r="C93" t="str">
-        <v>IGREJA BATISTA REGULAR EM JOAO XXIII</v>
+        <v>DEPOSITO SAO FRANCISCO COMERCIO DE MATERIAL DE CONSTRUCAO LTDA</v>
       </c>
       <c r="D93" t="str">
         <v>CE</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>85 3226-2144</v>
+        <v>85 98818-2173</v>
       </c>
       <c r="B94" t="str">
-        <v>17325474000106</v>
+        <v>17938517000129</v>
       </c>
       <c r="C94" t="str">
-        <v>JAC REPRESENTACAO COMERCIAL LTDA</v>
+        <v>JOSE ERIVALDO MOTA</v>
       </c>
       <c r="D94" t="str">
         <v>CE</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>nao encontrado</v>
+        <v>85 3483-6666</v>
       </c>
       <c r="B95" t="str">
-        <v>11732005000125</v>
+        <v>10772491000142</v>
       </c>
       <c r="C95" t="str">
-        <v>EDILSON MOTA QUINTELA</v>
+        <v>10.772.491 ANTONIA ADEMILDIA DE ARAUJO</v>
       </c>
       <c r="D95" t="str">
         <v>CE</v>
@@ -2307,24 +2307,164 @@
         <v>nao encontrado</v>
       </c>
       <c r="B96" t="str">
+        <v>05820414000180</v>
+      </c>
+      <c r="C96" t="str">
+        <v>JOSE DE LIMA RIBEIRO LTDA</v>
+      </c>
+      <c r="D96" t="str">
+        <v>CE</v>
+      </c>
+      <c r="E96" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F96" t="str">
+        <v>BOM SUCESSO</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>nao encontrado</v>
+      </c>
+      <c r="B97" t="str">
+        <v>04108586000163</v>
+      </c>
+      <c r="C97" t="str">
+        <v>ANA LUCIA JULIAO DOS SANTOS</v>
+      </c>
+      <c r="D97" t="str">
+        <v>CE</v>
+      </c>
+      <c r="E97" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F97" t="str">
+        <v>BOM SUCESSO</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>nao encontrado</v>
+      </c>
+      <c r="B98" t="str">
         <v>05326780000269</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C98" t="str">
         <v>DONIZETE TELES DE LIMA</v>
       </c>
-      <c r="D96" t="str">
-        <v>CE</v>
-      </c>
-      <c r="E96" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F96" t="str">
+      <c r="D98" t="str">
+        <v>CE</v>
+      </c>
+      <c r="E98" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F98" t="str">
+        <v>BOM SUCESSO</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>nao encontrado</v>
+      </c>
+      <c r="B99" t="str">
+        <v>41565607000104</v>
+      </c>
+      <c r="C99" t="str">
+        <v>MARIA MARLUCE AMARO CRUZ</v>
+      </c>
+      <c r="D99" t="str">
+        <v>CE</v>
+      </c>
+      <c r="E99" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F99" t="str">
+        <v>BOM SUCESSO</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>nao encontrado</v>
+      </c>
+      <c r="B100" t="str">
+        <v>04782409000168</v>
+      </c>
+      <c r="C100" t="str">
+        <v>IGREJA EVANGELICA ASSEMBLEIA DE DEUS MISSIONARIA CEIFEIROS DA ULTIMA HORA</v>
+      </c>
+      <c r="D100" t="str">
+        <v>CE</v>
+      </c>
+      <c r="E100" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F100" t="str">
+        <v>BOM SUCESSO</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>nao encontrado</v>
+      </c>
+      <c r="B101" t="str">
+        <v>41566217000140</v>
+      </c>
+      <c r="C101" t="str">
+        <v>FRANCISCO HELDER MONTEIRO DE PAULA</v>
+      </c>
+      <c r="D101" t="str">
+        <v>CE</v>
+      </c>
+      <c r="E101" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F101" t="str">
+        <v>BOM SUCESSO</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>nao encontrado</v>
+      </c>
+      <c r="B102" t="str">
+        <v>23598196000325</v>
+      </c>
+      <c r="C102" t="str">
+        <v>DISK SHOPPING LTDA</v>
+      </c>
+      <c r="D102" t="str">
+        <v>CE</v>
+      </c>
+      <c r="E102" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F102" t="str">
+        <v>BOM SUCESSO</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>nao encontrado</v>
+      </c>
+      <c r="B103" t="str">
+        <v>23726102000194</v>
+      </c>
+      <c r="C103" t="str">
+        <v>ARRUDA INDUSTRIA E COMERCIO LTDA</v>
+      </c>
+      <c r="D103" t="str">
+        <v>CE</v>
+      </c>
+      <c r="E103" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F103" t="str">
         <v>BOM SUCESSO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F96"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F103"/>
   </ignoredErrors>
 </worksheet>
 </file>